--- a/data/trans_camb/P15_5-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P15_5-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M2/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M3/M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>M2/M1</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>M3/M1</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,54</t>
+          <t>6,67</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-21,05</t>
+          <t>-21,45</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-35,88</t>
+          <t>-36,47</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-48,73</t>
+          <t>8,28</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,54</t>
+          <t>-18,22</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-18,49</t>
+          <t>-36,71</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-36,4</t>
+          <t>7,51</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-47,47</t>
+          <t>-19,75</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,59</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-19,7</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-36,16</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-48,09</t>
+          <t>-36,6</t>
         </is>
       </c>
     </row>
@@ -724,62 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,68; 10,95</t>
+          <t>2,11; 11,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-26,36; -15,77</t>
+          <t>-26,36; -16,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-40,93; -29,81</t>
+          <t>-41,94; -30,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-53,52; -43,81</t>
+          <t>4,41; 12,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,36; 12,31</t>
+          <t>-22,64; -13,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-23,02; -13,97</t>
+          <t>-40,74; -31,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-40,76; -30,74</t>
+          <t>4,52; 10,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-51,88; -42,52</t>
+          <t>-23,17; -16,31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,77; 10,68</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-22,92; -15,94</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-39,8; -32,1</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-51,49; -44,87</t>
+          <t>-40,02; -32,51</t>
         </is>
       </c>
     </row>
@@ -792,62 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-27,0%</t>
+          <t>-27,51%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-46,02%</t>
+          <t>-46,76%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-62,5%</t>
+          <t>10,66%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>-23,46%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-23,8%</t>
+          <t>-47,27%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-46,87%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-61,12%</t>
+          <t>-25,38%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>9,75%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-25,32%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-46,47%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-61,8%</t>
+          <t>-47,03%</t>
         </is>
       </c>
     </row>
@@ -860,62 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,17; 14,73</t>
+          <t>2,61; 14,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-32,82; -20,69</t>
+          <t>-33,06; -21,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-51,29; -38,87</t>
+          <t>-52,62; -39,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-67,43; -57,37</t>
+          <t>5,61; 16,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,61; 16,37</t>
+          <t>-28,61; -18,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-29,0; -18,16</t>
+          <t>-52,04; -42,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-51,79; -40,13</t>
+          <t>5,72; 13,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-65,39; -56,21</t>
+          <t>-29,2; -21,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,08; 14,14</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-29,03; -21,04</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-50,48; -41,72</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-65,11; -58,16</t>
+          <t>-50,79; -42,56</t>
         </is>
       </c>
     </row>
@@ -932,62 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,61</t>
+          <t>4,35</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-23,34</t>
+          <t>-23,98</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-43,27</t>
+          <t>-43,44</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-53,19</t>
+          <t>8,1</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,88</t>
+          <t>-22,42</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-22,39</t>
+          <t>-41,86</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-42,2</t>
+          <t>6,24</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-48,15</t>
+          <t>-23,2</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,26</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-22,86</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>-42,73</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>-50,76</t>
+          <t>-42,65</t>
         </is>
       </c>
     </row>
@@ -1000,62 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 8,9</t>
+          <t>0,33; 8,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-28,45; -17,19</t>
+          <t>-29,88; -19,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-48,48; -36,8</t>
+          <t>-48,76; -36,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-60,16; -44,97</t>
+          <t>4,48; 12,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,98; 11,91</t>
+          <t>-27,2; -17,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,53; -17,61</t>
+          <t>-47,09; -36,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-47,32; -37,1</t>
+          <t>3,28; 9,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-55,3; -40,47</t>
+          <t>-26,81; -19,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,64; 9,31</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-26,36; -19,07</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-46,27; -38,66</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-55,16; -45,24</t>
+          <t>-46,18; -38,65</t>
         </is>
       </c>
     </row>
@@ -1068,62 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>-28,38%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-51,41%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9,69%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>-26,84%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>-50,11%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7,42%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>-27,61%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-51,2%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-62,94%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>9,44%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-26,8%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-50,52%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-57,65%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-27,21%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-50,86%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-60,42%</t>
+          <t>-50,76%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,98; 10,93</t>
+          <t>0,4; 10,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-33,38; -21,01</t>
+          <t>-34,86; -22,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-56,8; -44,41</t>
+          <t>-57,15; -44,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-70,42; -54,54</t>
+          <t>5,14; 14,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,77; 14,68</t>
+          <t>-32,07; -21,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,42; -21,57</t>
+          <t>-55,54; -44,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-55,61; -45,24</t>
+          <t>3,95; 11,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-65,0; -48,83</t>
+          <t>-31,77; -23,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,21; 11,33</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-31,02; -22,92</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-54,64; -46,59</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-65,37; -54,42</t>
+          <t>-54,88; -46,38</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>11,37</t>
+          <t>10,79</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-22,18</t>
+          <t>-22,97</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-36,22</t>
+          <t>-35,72</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>6,7</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,84</t>
+          <t>-29,39</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-28,82</t>
+          <t>-35,6</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-35,39</t>
+          <t>8,77</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-26,12</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>8,15</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-25,45</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>-35,81</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
+          <t>-35,66</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,41; 19,53</t>
+          <t>3,3; 18,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-32,91; -10,59</t>
+          <t>-33,05; -12,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-46,5; -23,7</t>
+          <t>-46,34; -23,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,73; 14,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 12,69</t>
+          <t>-39,47; -19,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-38,47; -19,99</t>
+          <t>-44,57; -25,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-44,54; -26,4</t>
+          <t>3,06; 14,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,69; -19,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,2; 13,83</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-32,48; -18,9</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-43,55; -27,68</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-42,49; -27,79</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>13,85%</t>
+          <t>13,14%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-27,0%</t>
+          <t>-27,96%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-44,1%</t>
+          <t>-43,49%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>-35,98%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-35,29%</t>
+          <t>-43,59%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-43,33%</t>
+          <t>10,71%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,89%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>-31,07%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>-43,72%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
+          <t>-43,54%</t>
         </is>
       </c>
     </row>
@@ -1412,62 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,05; 25,74</t>
+          <t>3,75; 24,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-38,17; -13,63</t>
+          <t>-38,93; -15,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-55,41; -30,71</t>
+          <t>-54,42; -29,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,94; 18,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 16,15</t>
+          <t>-47,0; -25,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-45,43; -25,83</t>
+          <t>-53,1; -32,56</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-52,92; -33,6</t>
+          <t>3,65; 18,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,77; -23,89</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,54; 17,83</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-38,67; -23,65</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-51,25; -34,35</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-50,8; -35,05</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,34</t>
+          <t>6,23</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-22,12</t>
+          <t>-22,66</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-38,89</t>
+          <t>-39,18</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-51,37</t>
+          <t>8,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,84</t>
+          <t>-21,14</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-21,2</t>
+          <t>-38,6</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-38,55</t>
+          <t>7,13</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-49,1</t>
+          <t>-21,89</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,11</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>-21,65</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>-38,72</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>-50,23</t>
+          <t>-38,88</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,13; 9,29</t>
+          <t>3,52; 9,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-25,99; -18,55</t>
+          <t>-26,73; -19,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-42,67; -35,08</t>
+          <t>-42,99; -34,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-55,34; -47,26</t>
+          <t>5,51; 10,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,12; 10,57</t>
+          <t>-24,28; -17,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-24,07; -17,91</t>
+          <t>-41,81; -35,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-41,7; -34,88</t>
+          <t>5,21; 8,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-52,71; -45,26</t>
+          <t>-24,24; -19,42</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,09; 9,07</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>-24,16; -19,26</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>-41,34; -36,17</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>-52,91; -47,67</t>
+          <t>-41,21; -36,44</t>
         </is>
       </c>
     </row>
@@ -1620,62 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-27,27%</t>
+          <t>-27,94%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-47,95%</t>
+          <t>-48,3%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-63,33%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>9,75%</t>
+          <t>-26,29%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-26,37%</t>
+          <t>-48,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-47,94%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-61,06%</t>
+          <t>-27,1%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>8,8%</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>-26,81%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>-47,95%</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>-62,19%</t>
+          <t>-48,15%</t>
         </is>
       </c>
     </row>
@@ -1688,74 +1439,66 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,78; 11,75</t>
+          <t>4,23; 11,79</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-31,49; -23,33</t>
+          <t>-32,24; -23,96</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-51,84; -43,5</t>
+          <t>-52,23; -43,78</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-67,48; -59,24</t>
+          <t>6,77; 13,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,24; 13,46</t>
+          <t>-29,76; -22,46</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-29,42; -22,69</t>
+          <t>-51,19; -44,07</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-51,25; -43,76</t>
+          <t>6,37; 11,19</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-64,7; -56,41</t>
+          <t>-29,78; -24,38</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>6,16; 11,36</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>-29,5; -23,9</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>-50,72; -45,13</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>-64,85; -59,37</t>
+          <t>-50,83; -45,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
